--- a/Code/Results/Cases/Case_4_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02457431666628</v>
+        <v>1.046598473704398</v>
       </c>
       <c r="D2">
-        <v>1.042967067152341</v>
+        <v>1.054029843438831</v>
       </c>
       <c r="E2">
-        <v>1.04300719297807</v>
+        <v>1.060110850164385</v>
       </c>
       <c r="F2">
-        <v>1.051277932983457</v>
+        <v>1.067292445372106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060300295281222</v>
+        <v>1.048906877990022</v>
       </c>
       <c r="J2">
-        <v>1.046044060271389</v>
+        <v>1.051652013972134</v>
       </c>
       <c r="K2">
-        <v>1.053858578494953</v>
+        <v>1.056774179281239</v>
       </c>
       <c r="L2">
-        <v>1.053898201320688</v>
+        <v>1.062838520788511</v>
       </c>
       <c r="M2">
-        <v>1.062066282774879</v>
+        <v>1.070000699196018</v>
       </c>
       <c r="N2">
-        <v>1.019054928229879</v>
+        <v>1.021076528456047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028430583301084</v>
+        <v>1.047422920923547</v>
       </c>
       <c r="D3">
-        <v>1.045880088874702</v>
+        <v>1.054674070085734</v>
       </c>
       <c r="E3">
-        <v>1.046405078850013</v>
+        <v>1.060887515031045</v>
       </c>
       <c r="F3">
-        <v>1.054705051607667</v>
+        <v>1.068073110144085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061603697047459</v>
+        <v>1.049130991623463</v>
       </c>
       <c r="J3">
-        <v>1.048175105295631</v>
+        <v>1.052125210303717</v>
       </c>
       <c r="K3">
-        <v>1.055957743939973</v>
+        <v>1.057232000437864</v>
       </c>
       <c r="L3">
-        <v>1.056476728538637</v>
+        <v>1.063429642249805</v>
       </c>
       <c r="M3">
-        <v>1.06468273600325</v>
+        <v>1.070597208603252</v>
       </c>
       <c r="N3">
-        <v>1.019771638280755</v>
+        <v>1.021234844829427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030881535738567</v>
+        <v>1.047957084737315</v>
       </c>
       <c r="D4">
-        <v>1.047734050992995</v>
+        <v>1.055091494266831</v>
       </c>
       <c r="E4">
-        <v>1.048569591538094</v>
+        <v>1.06139106217238</v>
       </c>
       <c r="F4">
-        <v>1.056887816414003</v>
+        <v>1.068579197512919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062422919548544</v>
+        <v>1.04927506262898</v>
       </c>
       <c r="J4">
-        <v>1.049526970028614</v>
+        <v>1.052431400804257</v>
       </c>
       <c r="K4">
-        <v>1.057288579765759</v>
+        <v>1.057528118318061</v>
       </c>
       <c r="L4">
-        <v>1.058115140646267</v>
+        <v>1.063812467002203</v>
       </c>
       <c r="M4">
-        <v>1.066344915399695</v>
+        <v>1.070983471762295</v>
       </c>
       <c r="N4">
-        <v>1.02022621066282</v>
+        <v>1.021337254019597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031901625013909</v>
+        <v>1.048181810937662</v>
       </c>
       <c r="D5">
-        <v>1.048506238733567</v>
+        <v>1.055267113148977</v>
       </c>
       <c r="E5">
-        <v>1.049471610746679</v>
+        <v>1.061602989131917</v>
       </c>
       <c r="F5">
-        <v>1.057797350862782</v>
+        <v>1.068792180854712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062761644022433</v>
+        <v>1.049335402859264</v>
       </c>
       <c r="J5">
-        <v>1.050088974168818</v>
+        <v>1.052560122158431</v>
       </c>
       <c r="K5">
-        <v>1.057841642247802</v>
+        <v>1.057652575450274</v>
       </c>
       <c r="L5">
-        <v>1.058796916146344</v>
+        <v>1.063973483832581</v>
       </c>
       <c r="M5">
-        <v>1.067036498974643</v>
+        <v>1.071145922569942</v>
       </c>
       <c r="N5">
-        <v>1.020415165219725</v>
+        <v>1.021380298672809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032072307982724</v>
+        <v>1.048219553005414</v>
       </c>
       <c r="D6">
-        <v>1.04863547467216</v>
+        <v>1.055296608121588</v>
       </c>
       <c r="E6">
-        <v>1.049622604623872</v>
+        <v>1.06163858636693</v>
       </c>
       <c r="F6">
-        <v>1.057949597344726</v>
+        <v>1.068827954783607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062818187542408</v>
+        <v>1.049345520899992</v>
       </c>
       <c r="J6">
-        <v>1.050182971053504</v>
+        <v>1.05258173493509</v>
       </c>
       <c r="K6">
-        <v>1.057934131713508</v>
+        <v>1.057673470502917</v>
       </c>
       <c r="L6">
-        <v>1.058910983258107</v>
+        <v>1.064000523753205</v>
       </c>
       <c r="M6">
-        <v>1.067152202174986</v>
+        <v>1.071173202584189</v>
       </c>
       <c r="N6">
-        <v>1.020446767044144</v>
+        <v>1.021387525566181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.030895206247643</v>
+        <v>1.047960086898661</v>
       </c>
       <c r="D7">
-        <v>1.04774439711339</v>
+        <v>1.055093840371693</v>
       </c>
       <c r="E7">
-        <v>1.048581675266567</v>
+        <v>1.061393893026988</v>
       </c>
       <c r="F7">
-        <v>1.056900001180938</v>
+        <v>1.068582042528316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062427467765741</v>
+        <v>1.04927586979199</v>
       </c>
       <c r="J7">
-        <v>1.049534504180878</v>
+        <v>1.05243312079141</v>
       </c>
       <c r="K7">
-        <v>1.057295994843066</v>
+        <v>1.057529781443195</v>
       </c>
       <c r="L7">
-        <v>1.058124277879221</v>
+        <v>1.063814618215239</v>
       </c>
       <c r="M7">
-        <v>1.06635418440848</v>
+        <v>1.070985642181568</v>
       </c>
       <c r="N7">
-        <v>1.020228743854565</v>
+        <v>1.021337829217076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025886929640918</v>
+        <v>1.046876955289803</v>
       </c>
       <c r="D8">
-        <v>1.043958065399343</v>
+        <v>1.054247444445481</v>
       </c>
       <c r="E8">
-        <v>1.044162737872026</v>
+        <v>1.060373120878621</v>
       </c>
       <c r="F8">
-        <v>1.052443495122642</v>
+        <v>1.067556077781445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060745856554565</v>
+        <v>1.048982813493247</v>
       </c>
       <c r="J8">
-        <v>1.04676995873478</v>
+        <v>1.051811931915022</v>
       </c>
       <c r="K8">
-        <v>1.054573782877213</v>
+        <v>1.056928926731713</v>
       </c>
       <c r="L8">
-        <v>1.054775966277178</v>
+        <v>1.063038223830853</v>
       </c>
       <c r="M8">
-        <v>1.062957026026057</v>
+        <v>1.070202233020147</v>
       </c>
       <c r="N8">
-        <v>1.01929907778847</v>
+        <v>1.02113003856676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016707441097018</v>
+        <v>1.044973712329016</v>
       </c>
       <c r="D9">
-        <v>1.037039887788766</v>
+        <v>1.052760407131366</v>
       </c>
       <c r="E9">
-        <v>1.036103555014946</v>
+        <v>1.05858208360296</v>
       </c>
       <c r="F9">
-        <v>1.044312990450505</v>
+        <v>1.065755524931365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057592444749226</v>
+        <v>1.048459207770325</v>
       </c>
       <c r="J9">
-        <v>1.041683704398867</v>
+        <v>1.050717383013812</v>
       </c>
       <c r="K9">
-        <v>1.049559301556217</v>
+        <v>1.055869262479238</v>
       </c>
       <c r="L9">
-        <v>1.04863682809405</v>
+        <v>1.061672713663891</v>
       </c>
       <c r="M9">
-        <v>1.056725823165075</v>
+        <v>1.068823996785075</v>
       </c>
       <c r="N9">
-        <v>1.017588093093549</v>
+        <v>1.020763660694582</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010327690816062</v>
+        <v>1.043708602276762</v>
       </c>
       <c r="D10">
-        <v>1.032248950079699</v>
+        <v>1.051772131800318</v>
       </c>
       <c r="E10">
-        <v>1.030531574228327</v>
+        <v>1.057393350662956</v>
       </c>
       <c r="F10">
-        <v>1.038689962275625</v>
+        <v>1.064560205080453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055354761324938</v>
+        <v>1.04810534607</v>
       </c>
       <c r="J10">
-        <v>1.03813746028469</v>
+        <v>1.049987807114837</v>
       </c>
       <c r="K10">
-        <v>1.04605936936638</v>
+        <v>1.055162308959807</v>
       </c>
       <c r="L10">
-        <v>1.044370617419225</v>
+        <v>1.060764215172445</v>
       </c>
       <c r="M10">
-        <v>1.052394111705963</v>
+        <v>1.067906771652198</v>
       </c>
       <c r="N10">
-        <v>1.016394917639849</v>
+        <v>1.020519287163563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007498286180311</v>
+        <v>1.043161699981966</v>
       </c>
       <c r="D11">
-        <v>1.030128854793486</v>
+        <v>1.051344952345233</v>
       </c>
       <c r="E11">
-        <v>1.028067804726516</v>
+        <v>1.056879896556792</v>
       </c>
       <c r="F11">
-        <v>1.03620324608416</v>
+        <v>1.064043841634399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054351909398137</v>
+        <v>1.047950994543677</v>
       </c>
       <c r="J11">
-        <v>1.036562420743477</v>
+        <v>1.049671938748131</v>
       </c>
       <c r="K11">
-        <v>1.044504105910881</v>
+        <v>1.054856086475987</v>
       </c>
       <c r="L11">
-        <v>1.042479129033723</v>
+        <v>1.060371282455079</v>
       </c>
       <c r="M11">
-        <v>1.050473260292442</v>
+        <v>1.067510003277883</v>
       </c>
       <c r="N11">
-        <v>1.015864952022743</v>
+        <v>1.020413448035097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00643679095471</v>
+        <v>1.042958692938418</v>
       </c>
       <c r="D12">
-        <v>1.029334222926847</v>
+        <v>1.051186393502102</v>
       </c>
       <c r="E12">
-        <v>1.027144636023786</v>
+        <v>1.056689370459286</v>
       </c>
       <c r="F12">
-        <v>1.035271426256054</v>
+        <v>1.063852226334317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053974146654521</v>
+        <v>1.047893493049547</v>
       </c>
       <c r="J12">
-        <v>1.035971210579058</v>
+        <v>1.049554618958092</v>
       </c>
       <c r="K12">
-        <v>1.043920207759975</v>
+        <v>1.054742327139714</v>
       </c>
       <c r="L12">
-        <v>1.04176963238569</v>
+        <v>1.060225399471955</v>
       </c>
       <c r="M12">
-        <v>1.049752704596134</v>
+        <v>1.067362687052438</v>
       </c>
       <c r="N12">
-        <v>1.015666021961811</v>
+        <v>1.020374131594487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006664969607353</v>
+        <v>1.043002232418097</v>
       </c>
       <c r="D13">
-        <v>1.029505001740461</v>
+        <v>1.051220399694542</v>
       </c>
       <c r="E13">
-        <v>1.027343027256471</v>
+        <v>1.056730230159399</v>
       </c>
       <c r="F13">
-        <v>1.035471678980557</v>
+        <v>1.063893320058016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054055418736072</v>
+        <v>1.047905834924703</v>
       </c>
       <c r="J13">
-        <v>1.036098310341166</v>
+        <v>1.049579784077274</v>
       </c>
       <c r="K13">
-        <v>1.044045740461901</v>
+        <v>1.054766729545005</v>
       </c>
       <c r="L13">
-        <v>1.041922139257106</v>
+        <v>1.060256688685486</v>
       </c>
       <c r="M13">
-        <v>1.049907590595421</v>
+        <v>1.067394284085546</v>
       </c>
       <c r="N13">
-        <v>1.015708788421219</v>
+        <v>1.020382565235682</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007410760258977</v>
+        <v>1.043144916554926</v>
       </c>
       <c r="D14">
-        <v>1.030063317511257</v>
+        <v>1.051331843472443</v>
       </c>
       <c r="E14">
-        <v>1.027991660866919</v>
+        <v>1.056864143648522</v>
       </c>
       <c r="F14">
-        <v>1.036126389731135</v>
+        <v>1.064027998866348</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054320791664978</v>
+        <v>1.047946244883853</v>
       </c>
       <c r="J14">
-        <v>1.036513678417631</v>
+        <v>1.049662240891042</v>
       </c>
       <c r="K14">
-        <v>1.044455968638013</v>
+        <v>1.05484668338498</v>
       </c>
       <c r="L14">
-        <v>1.042420624496066</v>
+        <v>1.060359222290329</v>
       </c>
       <c r="M14">
-        <v>1.050413844729024</v>
+        <v>1.067497824814161</v>
       </c>
       <c r="N14">
-        <v>1.015848551238159</v>
+        <v>1.020410198185727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007868856783094</v>
+        <v>1.04323284714458</v>
       </c>
       <c r="D15">
-        <v>1.030406360162972</v>
+        <v>1.051400522908189</v>
       </c>
       <c r="E15">
-        <v>1.02839023279879</v>
+        <v>1.056946677886553</v>
       </c>
       <c r="F15">
-        <v>1.036528689035658</v>
+        <v>1.064111003511929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054483594808801</v>
+        <v>1.047971120496087</v>
       </c>
       <c r="J15">
-        <v>1.036768775452847</v>
+        <v>1.049713046327544</v>
       </c>
       <c r="K15">
-        <v>1.0447078945918</v>
+        <v>1.054895943682269</v>
       </c>
       <c r="L15">
-        <v>1.042726833114483</v>
+        <v>1.060422405916581</v>
       </c>
       <c r="M15">
-        <v>1.050724819777571</v>
+        <v>1.067561627836624</v>
       </c>
       <c r="N15">
-        <v>1.015934386088159</v>
+        <v>1.020427223365519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010514019189349</v>
+        <v>1.043744917469105</v>
       </c>
       <c r="D16">
-        <v>1.032388669360425</v>
+        <v>1.051800498264167</v>
       </c>
       <c r="E16">
-        <v>1.030693981753734</v>
+        <v>1.057427453960863</v>
       </c>
       <c r="F16">
-        <v>1.038853874847633</v>
+        <v>1.06459450026105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055420588959251</v>
+        <v>1.048115566200124</v>
       </c>
       <c r="J16">
-        <v>1.038241138476862</v>
+        <v>1.050008771275573</v>
       </c>
       <c r="K16">
-        <v>1.046161729909478</v>
+        <v>1.055182629803507</v>
       </c>
       <c r="L16">
-        <v>1.044495195137397</v>
+        <v>1.060790302510186</v>
       </c>
       <c r="M16">
-        <v>1.052520616900624</v>
+        <v>1.067933112353936</v>
       </c>
       <c r="N16">
-        <v>1.016429802741406</v>
+        <v>1.020526310899377</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012155015082749</v>
+        <v>1.044066367533348</v>
       </c>
       <c r="D17">
-        <v>1.033619717993034</v>
+        <v>1.052051594455837</v>
       </c>
       <c r="E17">
-        <v>1.032125154645239</v>
+        <v>1.057729374918484</v>
       </c>
       <c r="F17">
-        <v>1.040298268100457</v>
+        <v>1.064898112552798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055999147167586</v>
+        <v>1.04820587203454</v>
       </c>
       <c r="J17">
-        <v>1.03915397641089</v>
+        <v>1.050194284139924</v>
       </c>
       <c r="K17">
-        <v>1.047062877113706</v>
+        <v>1.055362432786676</v>
       </c>
       <c r="L17">
-        <v>1.045592421679021</v>
+        <v>1.061021196800568</v>
       </c>
       <c r="M17">
-        <v>1.05363478345653</v>
+        <v>1.068166242038328</v>
       </c>
       <c r="N17">
-        <v>1.016736947199925</v>
+        <v>1.020588459876312</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013105755711615</v>
+        <v>1.044253950508646</v>
       </c>
       <c r="D18">
-        <v>1.034333389331912</v>
+        <v>1.052198126880239</v>
       </c>
       <c r="E18">
-        <v>1.032955030671287</v>
+        <v>1.057905603196394</v>
       </c>
       <c r="F18">
-        <v>1.041135774090815</v>
+        <v>1.065075321838844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056333349036914</v>
+        <v>1.048258437095374</v>
       </c>
       <c r="J18">
-        <v>1.03968262557926</v>
+        <v>1.050302494695053</v>
       </c>
       <c r="K18">
-        <v>1.047584679958643</v>
+        <v>1.055467298412519</v>
       </c>
       <c r="L18">
-        <v>1.046228170880578</v>
+        <v>1.061155917143292</v>
       </c>
       <c r="M18">
-        <v>1.054280317058317</v>
+        <v>1.068302260749074</v>
       </c>
       <c r="N18">
-        <v>1.016914820310464</v>
+        <v>1.020624707995686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013428857903202</v>
+        <v>1.044317926088339</v>
       </c>
       <c r="D19">
-        <v>1.034575998549896</v>
+        <v>1.052248102849461</v>
       </c>
       <c r="E19">
-        <v>1.033237175445031</v>
+        <v>1.057965713267155</v>
       </c>
       <c r="F19">
-        <v>1.041420506736776</v>
+        <v>1.065135765470662</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056446754849726</v>
+        <v>1.048276341941272</v>
       </c>
       <c r="J19">
-        <v>1.039862244780033</v>
+        <v>1.050339392342016</v>
       </c>
       <c r="K19">
-        <v>1.047761959873552</v>
+        <v>1.05550305307239</v>
       </c>
       <c r="L19">
-        <v>1.046444233078898</v>
+        <v>1.061201860645509</v>
       </c>
       <c r="M19">
-        <v>1.054499699187837</v>
+        <v>1.068348646026915</v>
       </c>
       <c r="N19">
-        <v>1.016975255766145</v>
+        <v>1.020637067257782</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011979619602105</v>
+        <v>1.044031870014104</v>
       </c>
       <c r="D20">
-        <v>1.033488093025674</v>
+        <v>1.052024646722475</v>
       </c>
       <c r="E20">
-        <v>1.031972112889716</v>
+        <v>1.057696968931063</v>
       </c>
       <c r="F20">
-        <v>1.040143816337048</v>
+        <v>1.064865525671713</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055937411830945</v>
+        <v>1.048196194321076</v>
       </c>
       <c r="J20">
-        <v>1.039056431616892</v>
+        <v>1.050174379937619</v>
       </c>
       <c r="K20">
-        <v>1.046966589394327</v>
+        <v>1.055343142695136</v>
       </c>
       <c r="L20">
-        <v>1.045475140616953</v>
+        <v>1.060996419505753</v>
       </c>
       <c r="M20">
-        <v>1.053515694878813</v>
+        <v>1.068141225475371</v>
       </c>
       <c r="N20">
-        <v>1.016704126348876</v>
+        <v>1.02058179211641</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.007191438069066</v>
+        <v>1.043102895841588</v>
       </c>
       <c r="D21">
-        <v>1.029899106735303</v>
+        <v>1.051299022877973</v>
       </c>
       <c r="E21">
-        <v>1.027800878538568</v>
+        <v>1.056824704102395</v>
       </c>
       <c r="F21">
-        <v>1.035933821370328</v>
+        <v>1.063988334188299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054242792476057</v>
+        <v>1.047934349801568</v>
       </c>
       <c r="J21">
-        <v>1.036391535174604</v>
+        <v>1.049637959188787</v>
       </c>
       <c r="K21">
-        <v>1.044335339831349</v>
+        <v>1.054823139365693</v>
       </c>
       <c r="L21">
-        <v>1.042274026148722</v>
+        <v>1.060329026761357</v>
       </c>
       <c r="M21">
-        <v>1.050264962856393</v>
+        <v>1.06746733294682</v>
       </c>
       <c r="N21">
-        <v>1.015807452555365</v>
+        <v>1.020402061051596</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004119750132961</v>
+        <v>1.042519605396804</v>
       </c>
       <c r="D22">
-        <v>1.027601140420224</v>
+        <v>1.050843458502424</v>
       </c>
       <c r="E22">
-        <v>1.025131701830504</v>
+        <v>1.056277397818051</v>
       </c>
       <c r="F22">
-        <v>1.033239534949028</v>
+        <v>1.063437880908181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053146804354109</v>
+        <v>1.047768743504171</v>
       </c>
       <c r="J22">
-        <v>1.034680182047816</v>
+        <v>1.049300735887278</v>
       </c>
       <c r="K22">
-        <v>1.042644951169673</v>
+        <v>1.054496108441158</v>
       </c>
       <c r="L22">
-        <v>1.040221211080143</v>
+        <v>1.059909814667065</v>
       </c>
       <c r="M22">
-        <v>1.048180069026262</v>
+        <v>1.067043984976903</v>
       </c>
       <c r="N22">
-        <v>1.015231618497873</v>
+        <v>1.020289039447359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005754073145477</v>
+        <v>1.042828742977596</v>
       </c>
       <c r="D23">
-        <v>1.028823362033442</v>
+        <v>1.051084898209749</v>
       </c>
       <c r="E23">
-        <v>1.026551215397304</v>
+        <v>1.05656742827084</v>
       </c>
       <c r="F23">
-        <v>1.034672430090946</v>
+        <v>1.063729584312019</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053730757512239</v>
+        <v>1.047856626594483</v>
       </c>
       <c r="J23">
-        <v>1.0355908813762</v>
+        <v>1.049479499554854</v>
       </c>
       <c r="K23">
-        <v>1.04354455211027</v>
+        <v>1.054669481236305</v>
       </c>
       <c r="L23">
-        <v>1.041313348355066</v>
+        <v>1.060132008065657</v>
       </c>
       <c r="M23">
-        <v>1.049289296151983</v>
+        <v>1.067268375528793</v>
       </c>
       <c r="N23">
-        <v>1.015538049052878</v>
+        <v>1.020348955836125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012058893089727</v>
+        <v>1.044047457690793</v>
       </c>
       <c r="D24">
-        <v>1.033547582193439</v>
+        <v>1.052036823020196</v>
       </c>
       <c r="E24">
-        <v>1.032041280998591</v>
+        <v>1.057711611422433</v>
       </c>
       <c r="F24">
-        <v>1.040213621818811</v>
+        <v>1.0648802499182</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05596531743905</v>
+        <v>1.048200567599513</v>
       </c>
       <c r="J24">
-        <v>1.039100519617468</v>
+        <v>1.050183373777563</v>
       </c>
       <c r="K24">
-        <v>1.047010109462005</v>
+        <v>1.055351859089521</v>
       </c>
       <c r="L24">
-        <v>1.045528147977792</v>
+        <v>1.061007615164219</v>
       </c>
       <c r="M24">
-        <v>1.053569519276019</v>
+        <v>1.068152529265811</v>
       </c>
       <c r="N24">
-        <v>1.016718960625887</v>
+        <v>1.020584804997354</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019124723908754</v>
+        <v>1.045465098589518</v>
       </c>
       <c r="D25">
-        <v>1.038858903751823</v>
+        <v>1.05314430664769</v>
       </c>
       <c r="E25">
-        <v>1.038220932010395</v>
+        <v>1.059044185650838</v>
       </c>
       <c r="F25">
-        <v>1.046449418479059</v>
+        <v>1.066220130036718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058430967048029</v>
+        <v>1.048595420679104</v>
       </c>
       <c r="J25">
-        <v>1.043025172157716</v>
+        <v>1.051000334216213</v>
       </c>
       <c r="K25">
-        <v>1.05088251301569</v>
+        <v>1.056143307100973</v>
       </c>
       <c r="L25">
-        <v>1.050253537493841</v>
+        <v>1.062025413220833</v>
       </c>
       <c r="M25">
-        <v>1.058367053158176</v>
+        <v>1.069180029306876</v>
       </c>
       <c r="N25">
-        <v>1.018039406607183</v>
+        <v>1.020858401723068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046598473704398</v>
+        <v>1.02457431666628</v>
       </c>
       <c r="D2">
-        <v>1.054029843438831</v>
+        <v>1.042967067152341</v>
       </c>
       <c r="E2">
-        <v>1.060110850164385</v>
+        <v>1.04300719297807</v>
       </c>
       <c r="F2">
-        <v>1.067292445372106</v>
+        <v>1.051277932983456</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048906877990022</v>
+        <v>1.060300295281222</v>
       </c>
       <c r="J2">
-        <v>1.051652013972134</v>
+        <v>1.046044060271389</v>
       </c>
       <c r="K2">
-        <v>1.056774179281239</v>
+        <v>1.053858578494953</v>
       </c>
       <c r="L2">
-        <v>1.062838520788511</v>
+        <v>1.053898201320688</v>
       </c>
       <c r="M2">
-        <v>1.070000699196018</v>
+        <v>1.062066282774878</v>
       </c>
       <c r="N2">
-        <v>1.021076528456047</v>
+        <v>1.019054928229879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047422920923547</v>
+        <v>1.028430583301084</v>
       </c>
       <c r="D3">
-        <v>1.054674070085734</v>
+        <v>1.045880088874702</v>
       </c>
       <c r="E3">
-        <v>1.060887515031045</v>
+        <v>1.046405078850013</v>
       </c>
       <c r="F3">
-        <v>1.068073110144085</v>
+        <v>1.054705051607667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049130991623463</v>
+        <v>1.061603697047459</v>
       </c>
       <c r="J3">
-        <v>1.052125210303717</v>
+        <v>1.048175105295631</v>
       </c>
       <c r="K3">
-        <v>1.057232000437864</v>
+        <v>1.055957743939973</v>
       </c>
       <c r="L3">
-        <v>1.063429642249805</v>
+        <v>1.056476728538637</v>
       </c>
       <c r="M3">
-        <v>1.070597208603252</v>
+        <v>1.06468273600325</v>
       </c>
       <c r="N3">
-        <v>1.021234844829427</v>
+        <v>1.019771638280755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047957084737315</v>
+        <v>1.030881535738568</v>
       </c>
       <c r="D4">
-        <v>1.055091494266831</v>
+        <v>1.047734050992996</v>
       </c>
       <c r="E4">
-        <v>1.06139106217238</v>
+        <v>1.048569591538095</v>
       </c>
       <c r="F4">
-        <v>1.068579197512919</v>
+        <v>1.056887816414004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04927506262898</v>
+        <v>1.062422919548544</v>
       </c>
       <c r="J4">
-        <v>1.052431400804257</v>
+        <v>1.049526970028615</v>
       </c>
       <c r="K4">
-        <v>1.057528118318061</v>
+        <v>1.05728857976576</v>
       </c>
       <c r="L4">
-        <v>1.063812467002203</v>
+        <v>1.058115140646267</v>
       </c>
       <c r="M4">
-        <v>1.070983471762295</v>
+        <v>1.066344915399695</v>
       </c>
       <c r="N4">
-        <v>1.021337254019597</v>
+        <v>1.02022621066282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048181810937662</v>
+        <v>1.031901625013909</v>
       </c>
       <c r="D5">
-        <v>1.055267113148977</v>
+        <v>1.048506238733566</v>
       </c>
       <c r="E5">
-        <v>1.061602989131917</v>
+        <v>1.049471610746679</v>
       </c>
       <c r="F5">
-        <v>1.068792180854712</v>
+        <v>1.057797350862781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049335402859264</v>
+        <v>1.062761644022432</v>
       </c>
       <c r="J5">
-        <v>1.052560122158431</v>
+        <v>1.050088974168817</v>
       </c>
       <c r="K5">
-        <v>1.057652575450274</v>
+        <v>1.057841642247801</v>
       </c>
       <c r="L5">
-        <v>1.063973483832581</v>
+        <v>1.058796916146343</v>
       </c>
       <c r="M5">
-        <v>1.071145922569942</v>
+        <v>1.067036498974642</v>
       </c>
       <c r="N5">
-        <v>1.021380298672809</v>
+        <v>1.020415165219725</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048219553005414</v>
+        <v>1.032072307982725</v>
       </c>
       <c r="D6">
-        <v>1.055296608121588</v>
+        <v>1.04863547467216</v>
       </c>
       <c r="E6">
-        <v>1.06163858636693</v>
+        <v>1.049622604623872</v>
       </c>
       <c r="F6">
-        <v>1.068827954783607</v>
+        <v>1.057949597344725</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049345520899992</v>
+        <v>1.062818187542408</v>
       </c>
       <c r="J6">
-        <v>1.05258173493509</v>
+        <v>1.050182971053504</v>
       </c>
       <c r="K6">
-        <v>1.057673470502917</v>
+        <v>1.057934131713508</v>
       </c>
       <c r="L6">
-        <v>1.064000523753205</v>
+        <v>1.058910983258107</v>
       </c>
       <c r="M6">
-        <v>1.071173202584189</v>
+        <v>1.067152202174986</v>
       </c>
       <c r="N6">
-        <v>1.021387525566181</v>
+        <v>1.020446767044144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047960086898661</v>
+        <v>1.030895206247643</v>
       </c>
       <c r="D7">
-        <v>1.055093840371693</v>
+        <v>1.04774439711339</v>
       </c>
       <c r="E7">
-        <v>1.061393893026988</v>
+        <v>1.048581675266568</v>
       </c>
       <c r="F7">
-        <v>1.068582042528316</v>
+        <v>1.056900001180938</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04927586979199</v>
+        <v>1.062427467765741</v>
       </c>
       <c r="J7">
-        <v>1.05243312079141</v>
+        <v>1.049534504180879</v>
       </c>
       <c r="K7">
-        <v>1.057529781443195</v>
+        <v>1.057295994843066</v>
       </c>
       <c r="L7">
-        <v>1.063814618215239</v>
+        <v>1.058124277879221</v>
       </c>
       <c r="M7">
-        <v>1.070985642181568</v>
+        <v>1.06635418440848</v>
       </c>
       <c r="N7">
-        <v>1.021337829217076</v>
+        <v>1.020228743854565</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046876955289803</v>
+        <v>1.025886929640919</v>
       </c>
       <c r="D8">
-        <v>1.054247444445481</v>
+        <v>1.043958065399344</v>
       </c>
       <c r="E8">
-        <v>1.060373120878621</v>
+        <v>1.044162737872026</v>
       </c>
       <c r="F8">
-        <v>1.067556077781445</v>
+        <v>1.052443495122642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048982813493247</v>
+        <v>1.060745856554566</v>
       </c>
       <c r="J8">
-        <v>1.051811931915022</v>
+        <v>1.046769958734781</v>
       </c>
       <c r="K8">
-        <v>1.056928926731713</v>
+        <v>1.054573782877214</v>
       </c>
       <c r="L8">
-        <v>1.063038223830853</v>
+        <v>1.054775966277178</v>
       </c>
       <c r="M8">
-        <v>1.070202233020147</v>
+        <v>1.062957026026058</v>
       </c>
       <c r="N8">
-        <v>1.02113003856676</v>
+        <v>1.01929907778847</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044973712329016</v>
+        <v>1.016707441097018</v>
       </c>
       <c r="D9">
-        <v>1.052760407131366</v>
+        <v>1.037039887788766</v>
       </c>
       <c r="E9">
-        <v>1.05858208360296</v>
+        <v>1.036103555014946</v>
       </c>
       <c r="F9">
-        <v>1.065755524931365</v>
+        <v>1.044312990450504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048459207770325</v>
+        <v>1.057592444749227</v>
       </c>
       <c r="J9">
-        <v>1.050717383013812</v>
+        <v>1.041683704398868</v>
       </c>
       <c r="K9">
-        <v>1.055869262479238</v>
+        <v>1.049559301556217</v>
       </c>
       <c r="L9">
-        <v>1.061672713663891</v>
+        <v>1.04863682809405</v>
       </c>
       <c r="M9">
-        <v>1.068823996785075</v>
+        <v>1.056725823165074</v>
       </c>
       <c r="N9">
-        <v>1.020763660694582</v>
+        <v>1.017588093093549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043708602276762</v>
+        <v>1.010327690816061</v>
       </c>
       <c r="D10">
-        <v>1.051772131800318</v>
+        <v>1.032248950079699</v>
       </c>
       <c r="E10">
-        <v>1.057393350662956</v>
+        <v>1.030531574228326</v>
       </c>
       <c r="F10">
-        <v>1.064560205080453</v>
+        <v>1.038689962275625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04810534607</v>
+        <v>1.055354761324938</v>
       </c>
       <c r="J10">
-        <v>1.049987807114837</v>
+        <v>1.038137460284689</v>
       </c>
       <c r="K10">
-        <v>1.055162308959807</v>
+        <v>1.046059369366379</v>
       </c>
       <c r="L10">
-        <v>1.060764215172445</v>
+        <v>1.044370617419224</v>
       </c>
       <c r="M10">
-        <v>1.067906771652198</v>
+        <v>1.052394111705962</v>
       </c>
       <c r="N10">
-        <v>1.020519287163563</v>
+        <v>1.016394917639849</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043161699981966</v>
+        <v>1.007498286180312</v>
       </c>
       <c r="D11">
-        <v>1.051344952345233</v>
+        <v>1.030128854793487</v>
       </c>
       <c r="E11">
-        <v>1.056879896556792</v>
+        <v>1.028067804726517</v>
       </c>
       <c r="F11">
-        <v>1.064043841634399</v>
+        <v>1.036203246084161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047950994543677</v>
+        <v>1.054351909398138</v>
       </c>
       <c r="J11">
-        <v>1.049671938748131</v>
+        <v>1.036562420743478</v>
       </c>
       <c r="K11">
-        <v>1.054856086475987</v>
+        <v>1.044504105910882</v>
       </c>
       <c r="L11">
-        <v>1.060371282455079</v>
+        <v>1.042479129033724</v>
       </c>
       <c r="M11">
-        <v>1.067510003277883</v>
+        <v>1.050473260292443</v>
       </c>
       <c r="N11">
-        <v>1.020413448035097</v>
+        <v>1.015864952022743</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042958692938418</v>
+        <v>1.00643679095471</v>
       </c>
       <c r="D12">
-        <v>1.051186393502102</v>
+        <v>1.029334222926847</v>
       </c>
       <c r="E12">
-        <v>1.056689370459286</v>
+        <v>1.027144636023785</v>
       </c>
       <c r="F12">
-        <v>1.063852226334317</v>
+        <v>1.035271426256053</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047893493049547</v>
+        <v>1.053974146654521</v>
       </c>
       <c r="J12">
-        <v>1.049554618958092</v>
+        <v>1.035971210579058</v>
       </c>
       <c r="K12">
-        <v>1.054742327139714</v>
+        <v>1.043920207759975</v>
       </c>
       <c r="L12">
-        <v>1.060225399471955</v>
+        <v>1.04176963238569</v>
       </c>
       <c r="M12">
-        <v>1.067362687052438</v>
+        <v>1.049752704596133</v>
       </c>
       <c r="N12">
-        <v>1.020374131594487</v>
+        <v>1.015666021961811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043002232418097</v>
+        <v>1.006664969607353</v>
       </c>
       <c r="D13">
-        <v>1.051220399694542</v>
+        <v>1.029505001740461</v>
       </c>
       <c r="E13">
-        <v>1.056730230159399</v>
+        <v>1.02734302725647</v>
       </c>
       <c r="F13">
-        <v>1.063893320058016</v>
+        <v>1.035471678980556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047905834924703</v>
+        <v>1.054055418736072</v>
       </c>
       <c r="J13">
-        <v>1.049579784077274</v>
+        <v>1.036098310341166</v>
       </c>
       <c r="K13">
-        <v>1.054766729545005</v>
+        <v>1.044045740461901</v>
       </c>
       <c r="L13">
-        <v>1.060256688685486</v>
+        <v>1.041922139257106</v>
       </c>
       <c r="M13">
-        <v>1.067394284085546</v>
+        <v>1.04990759059542</v>
       </c>
       <c r="N13">
-        <v>1.020382565235682</v>
+        <v>1.015708788421219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043144916554926</v>
+        <v>1.007410760258977</v>
       </c>
       <c r="D14">
-        <v>1.051331843472443</v>
+        <v>1.030063317511257</v>
       </c>
       <c r="E14">
-        <v>1.056864143648522</v>
+        <v>1.027991660866919</v>
       </c>
       <c r="F14">
-        <v>1.064027998866348</v>
+        <v>1.036126389731135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047946244883853</v>
+        <v>1.054320791664979</v>
       </c>
       <c r="J14">
-        <v>1.049662240891042</v>
+        <v>1.036513678417631</v>
       </c>
       <c r="K14">
-        <v>1.05484668338498</v>
+        <v>1.044455968638013</v>
       </c>
       <c r="L14">
-        <v>1.060359222290329</v>
+        <v>1.042420624496066</v>
       </c>
       <c r="M14">
-        <v>1.067497824814161</v>
+        <v>1.050413844729025</v>
       </c>
       <c r="N14">
-        <v>1.020410198185727</v>
+        <v>1.015848551238159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04323284714458</v>
+        <v>1.007868856783094</v>
       </c>
       <c r="D15">
-        <v>1.051400522908189</v>
+        <v>1.030406360162972</v>
       </c>
       <c r="E15">
-        <v>1.056946677886553</v>
+        <v>1.02839023279879</v>
       </c>
       <c r="F15">
-        <v>1.064111003511929</v>
+        <v>1.036528689035657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047971120496087</v>
+        <v>1.054483594808801</v>
       </c>
       <c r="J15">
-        <v>1.049713046327544</v>
+        <v>1.036768775452847</v>
       </c>
       <c r="K15">
-        <v>1.054895943682269</v>
+        <v>1.0447078945918</v>
       </c>
       <c r="L15">
-        <v>1.060422405916581</v>
+        <v>1.042726833114483</v>
       </c>
       <c r="M15">
-        <v>1.067561627836624</v>
+        <v>1.050724819777571</v>
       </c>
       <c r="N15">
-        <v>1.020427223365519</v>
+        <v>1.015934386088159</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043744917469105</v>
+        <v>1.01051401918935</v>
       </c>
       <c r="D16">
-        <v>1.051800498264167</v>
+        <v>1.032388669360425</v>
       </c>
       <c r="E16">
-        <v>1.057427453960863</v>
+        <v>1.030693981753734</v>
       </c>
       <c r="F16">
-        <v>1.06459450026105</v>
+        <v>1.038853874847633</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048115566200124</v>
+        <v>1.055420588959251</v>
       </c>
       <c r="J16">
-        <v>1.050008771275573</v>
+        <v>1.038241138476863</v>
       </c>
       <c r="K16">
-        <v>1.055182629803507</v>
+        <v>1.046161729909478</v>
       </c>
       <c r="L16">
-        <v>1.060790302510186</v>
+        <v>1.044495195137398</v>
       </c>
       <c r="M16">
-        <v>1.067933112353936</v>
+        <v>1.052520616900624</v>
       </c>
       <c r="N16">
-        <v>1.020526310899377</v>
+        <v>1.016429802741406</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044066367533348</v>
+        <v>1.012155015082749</v>
       </c>
       <c r="D17">
-        <v>1.052051594455837</v>
+        <v>1.033619717993034</v>
       </c>
       <c r="E17">
-        <v>1.057729374918484</v>
+        <v>1.032125154645239</v>
       </c>
       <c r="F17">
-        <v>1.064898112552798</v>
+        <v>1.040298268100456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04820587203454</v>
+        <v>1.055999147167586</v>
       </c>
       <c r="J17">
-        <v>1.050194284139924</v>
+        <v>1.039153976410891</v>
       </c>
       <c r="K17">
-        <v>1.055362432786676</v>
+        <v>1.047062877113706</v>
       </c>
       <c r="L17">
-        <v>1.061021196800568</v>
+        <v>1.045592421679022</v>
       </c>
       <c r="M17">
-        <v>1.068166242038328</v>
+        <v>1.05363478345653</v>
       </c>
       <c r="N17">
-        <v>1.020588459876312</v>
+        <v>1.016736947199925</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044253950508646</v>
+        <v>1.013105755711615</v>
       </c>
       <c r="D18">
-        <v>1.052198126880239</v>
+        <v>1.034333389331912</v>
       </c>
       <c r="E18">
-        <v>1.057905603196394</v>
+        <v>1.032955030671287</v>
       </c>
       <c r="F18">
-        <v>1.065075321838844</v>
+        <v>1.041135774090815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048258437095374</v>
+        <v>1.056333349036914</v>
       </c>
       <c r="J18">
-        <v>1.050302494695053</v>
+        <v>1.03968262557926</v>
       </c>
       <c r="K18">
-        <v>1.055467298412519</v>
+        <v>1.047584679958643</v>
       </c>
       <c r="L18">
-        <v>1.061155917143292</v>
+        <v>1.046228170880578</v>
       </c>
       <c r="M18">
-        <v>1.068302260749074</v>
+        <v>1.054280317058317</v>
       </c>
       <c r="N18">
-        <v>1.020624707995686</v>
+        <v>1.016914820310464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044317926088339</v>
+        <v>1.013428857903202</v>
       </c>
       <c r="D19">
-        <v>1.052248102849461</v>
+        <v>1.034575998549895</v>
       </c>
       <c r="E19">
-        <v>1.057965713267155</v>
+        <v>1.033237175445031</v>
       </c>
       <c r="F19">
-        <v>1.065135765470662</v>
+        <v>1.041420506736775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048276341941272</v>
+        <v>1.056446754849726</v>
       </c>
       <c r="J19">
-        <v>1.050339392342016</v>
+        <v>1.039862244780033</v>
       </c>
       <c r="K19">
-        <v>1.05550305307239</v>
+        <v>1.047761959873551</v>
       </c>
       <c r="L19">
-        <v>1.061201860645509</v>
+        <v>1.046444233078898</v>
       </c>
       <c r="M19">
-        <v>1.068348646026915</v>
+        <v>1.054499699187837</v>
       </c>
       <c r="N19">
-        <v>1.020637067257782</v>
+        <v>1.016975255766145</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044031870014104</v>
+        <v>1.011979619602105</v>
       </c>
       <c r="D20">
-        <v>1.052024646722475</v>
+        <v>1.033488093025675</v>
       </c>
       <c r="E20">
-        <v>1.057696968931063</v>
+        <v>1.031972112889717</v>
       </c>
       <c r="F20">
-        <v>1.064865525671713</v>
+        <v>1.040143816337048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048196194321076</v>
+        <v>1.055937411830945</v>
       </c>
       <c r="J20">
-        <v>1.050174379937619</v>
+        <v>1.039056431616892</v>
       </c>
       <c r="K20">
-        <v>1.055343142695136</v>
+        <v>1.046966589394327</v>
       </c>
       <c r="L20">
-        <v>1.060996419505753</v>
+        <v>1.045475140616953</v>
       </c>
       <c r="M20">
-        <v>1.068141225475371</v>
+        <v>1.053515694878813</v>
       </c>
       <c r="N20">
-        <v>1.02058179211641</v>
+        <v>1.016704126348876</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043102895841588</v>
+        <v>1.007191438069067</v>
       </c>
       <c r="D21">
-        <v>1.051299022877973</v>
+        <v>1.029899106735304</v>
       </c>
       <c r="E21">
-        <v>1.056824704102395</v>
+        <v>1.027800878538568</v>
       </c>
       <c r="F21">
-        <v>1.063988334188299</v>
+        <v>1.035933821370328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047934349801568</v>
+        <v>1.054242792476058</v>
       </c>
       <c r="J21">
-        <v>1.049637959188787</v>
+        <v>1.036391535174604</v>
       </c>
       <c r="K21">
-        <v>1.054823139365693</v>
+        <v>1.044335339831349</v>
       </c>
       <c r="L21">
-        <v>1.060329026761357</v>
+        <v>1.042274026148722</v>
       </c>
       <c r="M21">
-        <v>1.06746733294682</v>
+        <v>1.050264962856393</v>
       </c>
       <c r="N21">
-        <v>1.020402061051596</v>
+        <v>1.015807452555365</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042519605396804</v>
+        <v>1.004119750132961</v>
       </c>
       <c r="D22">
-        <v>1.050843458502424</v>
+        <v>1.027601140420224</v>
       </c>
       <c r="E22">
-        <v>1.056277397818051</v>
+        <v>1.025131701830505</v>
       </c>
       <c r="F22">
-        <v>1.063437880908181</v>
+        <v>1.033239534949028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047768743504171</v>
+        <v>1.053146804354109</v>
       </c>
       <c r="J22">
-        <v>1.049300735887278</v>
+        <v>1.034680182047817</v>
       </c>
       <c r="K22">
-        <v>1.054496108441158</v>
+        <v>1.042644951169674</v>
       </c>
       <c r="L22">
-        <v>1.059909814667065</v>
+        <v>1.040221211080143</v>
       </c>
       <c r="M22">
-        <v>1.067043984976903</v>
+        <v>1.048180069026262</v>
       </c>
       <c r="N22">
-        <v>1.020289039447359</v>
+        <v>1.015231618497873</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042828742977596</v>
+        <v>1.005754073145478</v>
       </c>
       <c r="D23">
-        <v>1.051084898209749</v>
+        <v>1.028823362033442</v>
       </c>
       <c r="E23">
-        <v>1.05656742827084</v>
+        <v>1.026551215397304</v>
       </c>
       <c r="F23">
-        <v>1.063729584312019</v>
+        <v>1.034672430090946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047856626594483</v>
+        <v>1.053730757512239</v>
       </c>
       <c r="J23">
-        <v>1.049479499554854</v>
+        <v>1.0355908813762</v>
       </c>
       <c r="K23">
-        <v>1.054669481236305</v>
+        <v>1.04354455211027</v>
       </c>
       <c r="L23">
-        <v>1.060132008065657</v>
+        <v>1.041313348355066</v>
       </c>
       <c r="M23">
-        <v>1.067268375528793</v>
+        <v>1.049289296151983</v>
       </c>
       <c r="N23">
-        <v>1.020348955836125</v>
+        <v>1.015538049052878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044047457690793</v>
+        <v>1.012058893089727</v>
       </c>
       <c r="D24">
-        <v>1.052036823020196</v>
+        <v>1.033547582193439</v>
       </c>
       <c r="E24">
-        <v>1.057711611422433</v>
+        <v>1.032041280998591</v>
       </c>
       <c r="F24">
-        <v>1.0648802499182</v>
+        <v>1.04021362181881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048200567599513</v>
+        <v>1.05596531743905</v>
       </c>
       <c r="J24">
-        <v>1.050183373777563</v>
+        <v>1.039100519617468</v>
       </c>
       <c r="K24">
-        <v>1.055351859089521</v>
+        <v>1.047010109462005</v>
       </c>
       <c r="L24">
-        <v>1.061007615164219</v>
+        <v>1.045528147977792</v>
       </c>
       <c r="M24">
-        <v>1.068152529265811</v>
+        <v>1.053569519276018</v>
       </c>
       <c r="N24">
-        <v>1.020584804997354</v>
+        <v>1.016718960625887</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045465098589518</v>
+        <v>1.019124723908755</v>
       </c>
       <c r="D25">
-        <v>1.05314430664769</v>
+        <v>1.038858903751824</v>
       </c>
       <c r="E25">
-        <v>1.059044185650838</v>
+        <v>1.038220932010396</v>
       </c>
       <c r="F25">
-        <v>1.066220130036718</v>
+        <v>1.04644941847906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048595420679104</v>
+        <v>1.05843096704803</v>
       </c>
       <c r="J25">
-        <v>1.051000334216213</v>
+        <v>1.043025172157717</v>
       </c>
       <c r="K25">
-        <v>1.056143307100973</v>
+        <v>1.05088251301569</v>
       </c>
       <c r="L25">
-        <v>1.062025413220833</v>
+        <v>1.050253537493842</v>
       </c>
       <c r="M25">
-        <v>1.069180029306876</v>
+        <v>1.058367053158177</v>
       </c>
       <c r="N25">
-        <v>1.020858401723068</v>
+        <v>1.018039406607183</v>
       </c>
     </row>
   </sheetData>
